--- a/data/case1/12/Qlm1_14.xlsx
+++ b/data/case1/12/Qlm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.18090154911376288</v>
+        <v>-0.24056878790175773</v>
       </c>
       <c r="B1" s="0">
-        <v>0.18080132700504947</v>
+        <v>0.24038394707937982</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.12881334679040357</v>
+        <v>-0.21827775150838491</v>
       </c>
       <c r="B2" s="0">
-        <v>0.12853908275601267</v>
+        <v>0.21751568572317215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.078838227073125822</v>
+        <v>-0.11046363447599639</v>
       </c>
       <c r="B3" s="0">
-        <v>0.078557506856020254</v>
+        <v>0.11013155201914593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.070557506899202593</v>
+        <v>-0.10213155204484714</v>
       </c>
       <c r="B4" s="0">
-        <v>0.070226927880636225</v>
+        <v>0.10170557777145817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.067226927903525358</v>
+        <v>-0.098705577786568632</v>
       </c>
       <c r="B5" s="0">
-        <v>0.066116499609677248</v>
+        <v>0.097261852865691445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.015269354651236355</v>
+        <v>0.0019502865433729255</v>
       </c>
       <c r="B6" s="0">
-        <v>0.015006014087479258</v>
+        <v>-0.0020399071202010788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.051737941079697425</v>
+        <v>0.012039907084569812</v>
       </c>
       <c r="B7" s="0">
-        <v>0.051558336609144995</v>
+        <v>-0.012053265720339823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.041558336671478902</v>
+        <v>0.0051481731233558037</v>
       </c>
       <c r="B8" s="0">
-        <v>0.041201723892971831</v>
+        <v>-0.0051678271314941071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.011548458712520748</v>
+        <v>0.0071678271157114004</v>
       </c>
       <c r="B9" s="0">
-        <v>0.011439776374667865</v>
+        <v>-0.0071790840138503675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0094397764062730261</v>
+        <v>0.0091790839983367789</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0094336159172829781</v>
+        <v>-0.0091790594506768741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024388188797477284</v>
+        <v>0.012179059432782857</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024362041841784254</v>
+        <v>-0.012180062395697355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020862041880786997</v>
+        <v>0.015685115840273323</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020669461800820077</v>
+        <v>-0.01570491394871576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169461842487799</v>
+        <v>0.019204913930559897</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081708339213186</v>
+        <v>-0.019222143425674965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090817084017338345</v>
+        <v>0.027222143397023224</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090530059455931067</v>
+        <v>-0.027254163374895057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080530059774117646</v>
+        <v>0.028254163363796714</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080344690419877907</v>
+        <v>-0.02829667290946869</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060344690787492716</v>
+        <v>0.030296672896784838</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035260758284359</v>
+        <v>-0.030475629199908205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035261132898015</v>
+        <v>-0.0040034316069528231</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999534350295</v>
+        <v>0.0039999999839865907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.04598798024236217</v>
+        <v>-0.016106195586321093</v>
       </c>
       <c r="B18" s="0">
-        <v>0.045918712427678088</v>
+        <v>0.016091858903095613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.041918712446946671</v>
+        <v>-0.012091858913602316</v>
       </c>
       <c r="B19" s="0">
-        <v>0.041431332417160238</v>
+        <v>0.012017123229582261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.037431332441153486</v>
+        <v>-0.0080171232407764137</v>
       </c>
       <c r="B20" s="0">
-        <v>0.037301547833045845</v>
+        <v>0.0080057179520238719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057584494004317</v>
+        <v>-0.0040057179633441464</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999747024617</v>
+        <v>0.0039999999886077831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045700855706218846</v>
+        <v>-0.10305205126171124</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490841215841016</v>
+        <v>0.1024291983203014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490841245054199</v>
+        <v>-0.040497303515878436</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097419103216403</v>
+        <v>0.040098761730025245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009741920174779</v>
+        <v>-0.020098761786426778</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999900170984</v>
+        <v>0.01999999994289503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04884714498203202</v>
+        <v>-0.097212139425380428</v>
       </c>
       <c r="B25" s="0">
-        <v>0.048812145878526891</v>
+        <v>0.097088834265143475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.046312145904403579</v>
+        <v>-0.094588834283362289</v>
       </c>
       <c r="B26" s="0">
-        <v>0.046270293830955822</v>
+        <v>0.094430569432047307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.043770293857737119</v>
+        <v>-0.091930569451236455</v>
       </c>
       <c r="B27" s="0">
-        <v>0.04354044453460526</v>
+        <v>0.090996821121711591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.041540444562918388</v>
+        <v>-0.088996821143751959</v>
       </c>
       <c r="B28" s="0">
-        <v>0.041398053675158586</v>
+        <v>0.088357430509137025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081343004918342565</v>
+        <v>-0.081357430546493248</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081164561215166131</v>
+        <v>0.08117178415905979</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021164561507147184</v>
+        <v>-0.02117178432631972</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022698611496082</v>
+        <v>0.021024317159483719</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402269866939676</v>
+        <v>-0.014024317199544001</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001347684114762</v>
+        <v>0.014001599032416934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040013477556861687</v>
+        <v>-0.0040015990799009415</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999550293097</v>
+        <v>0.0039999999669504405</v>
       </c>
     </row>
   </sheetData>
